--- a/biology/Médecine/Défilé_costoclaviculaire/Défilé_costoclaviculaire.xlsx
+++ b/biology/Médecine/Défilé_costoclaviculaire/Défilé_costoclaviculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9fil%C3%A9_costoclaviculaire</t>
+          <t>Défilé_costoclaviculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le défilé costoclaviculaire est un espace du thorax situé sous la clavicule.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9fil%C3%A9_costoclaviculaire</t>
+          <t>Défilé_costoclaviculaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le défilé costoclaviculaire est situé au sommet de la pyramide de la fosse axillaire.
 Il est formé en haut par la face inférieure de la clavicule et en bas par la face supérieure de la première côte.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9fil%C3%A9_costoclaviculaire</t>
+          <t>Défilé_costoclaviculaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le défilé costoclaviculaire donne passage au plexus brachial, à l'artère subclavière et à la veine sous-clavière située en bas et en avant du muscle scalène antérieur.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9fil%C3%A9_costoclaviculaire</t>
+          <t>Défilé_costoclaviculaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La compression du paquet vasculonerveux à cet endroit donne le syndrome du défilé thoracobrachial, appelé aussi, syndrome du défilé costoclaviculaire.
 </t>
